--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,25 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T19:45:00+01:00</t>
+    <t>2023-03-02T21:18:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>Nils Haendly</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1588,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1688,21 +1682,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1742,14 +1736,6 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1813,6176 +1799,6176 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AO1" t="s" s="1">
         <v>75</v>
       </c>
-      <c r="AN1" t="s" s="1">
+      <c r="AP1" t="s" s="1">
         <v>76</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AO2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AK4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN4" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN4" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI9" t="s" s="2">
+      <c r="AK9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="P10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE10" t="s" s="2">
+      <c r="AF10" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI10" t="s" s="2">
+      <c r="AK10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN11" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AP11" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="P12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AO12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AO13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="P14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AP14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="P15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AP15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="P16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="P17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AP17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="P19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AP19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="P20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AP20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AN21" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AP21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="P22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AP22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="P23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="P24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z24" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AJ24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="P25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="P26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="P28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="P31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AO31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC33" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AO35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="P37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="P38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="P39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="P43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC45" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="O47" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AA47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AN47" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AP47" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="P48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AA49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="P50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:55:41+01:00</t>
+    <t>2023-03-02T22:37:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Nils Haendly</t>
+    <t>HL7 International - [Some] Work Group</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1582,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1682,21 +1688,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1736,6 +1742,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1799,6176 +1813,6176 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="AN42" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -19088,10 +19088,10 @@
         <v>80</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I136" t="s" s="2">
         <v>82</v>
@@ -19173,7 +19173,7 @@
         <v>104</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -21756,10 +21756,10 @@
         <v>80</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I158" t="s" s="2">
         <v>82</v>
@@ -21841,7 +21841,7 @@
         <v>104</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>82</v>
@@ -24424,10 +24424,10 @@
         <v>80</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>82</v>
@@ -24509,7 +24509,7 @@
         <v>104</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>82</v>
@@ -27092,10 +27092,10 @@
         <v>80</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>82</v>
@@ -27177,7 +27177,7 @@
         <v>104</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>82</v>
@@ -28413,13 +28413,13 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>82</v>
@@ -28661,7 +28661,7 @@
         <v>92</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$237</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8634" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9172" uniqueCount="774">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2021,9 +2021,6 @@
     <t>Observation.component.code.coding</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">value:code}
 </t>
   </si>
@@ -2264,6 +2261,30 @@
     <t>exSmokerLOINCCode</t>
   </si>
   <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.id</t>
+  </si>
+  <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.system</t>
+  </si>
+  <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.version</t>
+  </si>
+  <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.code</t>
+  </si>
+  <si>
+    <t>LA15920-4</t>
+  </si>
+  <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.display</t>
+  </si>
+  <si>
+    <t>Observation.component:exSmoker.code.coding:exSmokerLOINCCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.component:exSmoker.code.text</t>
   </si>
   <si>
@@ -2350,6 +2371,30 @@
   </si>
   <si>
     <t>nonSmokerLOINCCode</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.id</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.system</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.version</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.code</t>
+  </si>
+  <si>
+    <t>LA18978-9</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.display</t>
+  </si>
+  <si>
+    <t>Observation.component:nonSmoker.code.coding:nonSmokerLOINCCode.userSelected</t>
   </si>
   <si>
     <t>Observation.component:nonSmoker.code.text</t>
@@ -2684,7 +2729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP223"/>
+  <dimension ref="A1:AP237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -19927,7 +19972,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>81</v>
@@ -19991,7 +20036,7 @@
         <v>82</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC143" s="2"/>
       <c r="AD143" t="s" s="2">
@@ -20036,20 +20081,20 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>644</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>92</v>
@@ -20160,10 +20205,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20278,10 +20323,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B146" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20398,10 +20443,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B147" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20409,7 +20454,7 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>92</v>
@@ -20520,10 +20565,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B148" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20640,10 +20685,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B149" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20685,7 +20730,7 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>82</v>
@@ -20762,10 +20807,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20884,10 +20929,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21006,20 +21051,20 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>644</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>92</v>
@@ -21130,10 +21175,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B153" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21252,7 +21297,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>616</v>
@@ -21374,7 +21419,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>621</v>
@@ -21496,7 +21541,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>625</v>
@@ -21618,7 +21663,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>626</v>
@@ -21740,13 +21785,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>599</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>82</v>
@@ -21864,7 +21909,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>608</v>
@@ -21982,7 +22027,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>609</v>
@@ -22102,7 +22147,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>610</v>
@@ -22224,14 +22269,14 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>611</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -22253,10 +22298,10 @@
         <v>198</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="N162" t="s" s="2">
         <v>638</v>
@@ -22346,7 +22391,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>640</v>
@@ -22464,7 +22509,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>642</v>
@@ -22584,7 +22629,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>644</v>
@@ -22595,7 +22640,7 @@
       </c>
       <c r="E165" s="2"/>
       <c r="F165" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>81</v>
@@ -22659,7 +22704,7 @@
         <v>82</v>
       </c>
       <c r="AB165" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC165" s="2"/>
       <c r="AD165" t="s" s="2">
@@ -22704,20 +22749,20 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>644</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>92</v>
@@ -22828,10 +22873,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22946,10 +22991,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23066,10 +23111,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23077,7 +23122,7 @@
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>92</v>
@@ -23188,10 +23233,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23308,10 +23353,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23353,7 +23398,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>82</v>
@@ -23430,10 +23475,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23552,10 +23597,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23674,20 +23719,20 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>644</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>92</v>
@@ -23798,10 +23843,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23920,7 +23965,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>616</v>
@@ -24042,7 +24087,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>621</v>
@@ -24164,7 +24209,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>625</v>
@@ -24286,7 +24331,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>626</v>
@@ -24408,13 +24453,13 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>599</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>82</v>
@@ -24532,7 +24577,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>608</v>
@@ -24650,7 +24695,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>609</v>
@@ -24770,7 +24815,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>610</v>
@@ -24892,14 +24937,14 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>611</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -24921,10 +24966,10 @@
         <v>198</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>638</v>
@@ -25014,7 +25059,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>640</v>
@@ -25132,7 +25177,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>642</v>
@@ -25252,7 +25297,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>644</v>
@@ -25263,7 +25308,7 @@
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>81</v>
@@ -25327,7 +25372,7 @@
         <v>82</v>
       </c>
       <c r="AB187" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC187" s="2"/>
       <c r="AD187" t="s" s="2">
@@ -25372,20 +25417,20 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>644</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>92</v>
@@ -25496,10 +25541,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25614,10 +25659,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25734,10 +25779,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25745,7 +25790,7 @@
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>92</v>
@@ -25856,10 +25901,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25976,10 +26021,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26021,7 +26066,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>82</v>
@@ -26098,10 +26143,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26220,10 +26265,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26342,20 +26387,20 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>644</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G196" t="s" s="2">
         <v>92</v>
@@ -26466,10 +26511,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26489,23 +26534,19 @@
         <v>82</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K197" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O197" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
         <v>82</v>
       </c>
@@ -26553,7 +26594,7 @@
         <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -26562,10 +26603,10 @@
         <v>92</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK197" t="s" s="2">
         <v>82</v>
@@ -26574,10 +26615,10 @@
         <v>82</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="AO197" t="s" s="2">
         <v>82</v>
@@ -26588,21 +26629,21 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H198" t="s" s="2">
         <v>82</v>
@@ -26611,23 +26652,21 @@
         <v>82</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>448</v>
+        <v>140</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>617</v>
+        <v>141</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>450</v>
+        <v>221</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
         <v>82</v>
       </c>
@@ -26663,57 +26702,57 @@
         <v>82</v>
       </c>
       <c r="AB198" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC198" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>616</v>
+        <v>222</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>456</v>
+        <v>82</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>457</v>
+        <v>106</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP198" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26721,7 +26760,7 @@
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>92</v>
@@ -26733,29 +26772,29 @@
         <v>82</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>622</v>
+        <v>239</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>623</v>
+        <v>240</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>624</v>
+        <v>241</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>465</v>
+        <v>242</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>82</v>
@@ -26773,13 +26812,13 @@
         <v>82</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>82</v>
@@ -26797,7 +26836,7 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>621</v>
+        <v>244</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26806,7 +26845,7 @@
         <v>92</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>105</v>
@@ -26818,10 +26857,10 @@
         <v>82</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>470</v>
+        <v>246</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>82</v>
@@ -26832,21 +26871,21 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H200" t="s" s="2">
         <v>82</v>
@@ -26855,23 +26894,21 @@
         <v>82</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>473</v>
+        <v>249</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>82</v>
       </c>
@@ -26895,13 +26932,13 @@
         <v>82</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>82</v>
@@ -26919,13 +26956,13 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>625</v>
+        <v>252</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>104</v>
@@ -26937,27 +26974,27 @@
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>480</v>
+        <v>253</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26965,10 +27002,10 @@
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>82</v>
@@ -26977,29 +27014,29 @@
         <v>82</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>627</v>
+        <v>257</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>628</v>
+        <v>258</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>532</v>
+        <v>259</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>533</v>
+        <v>260</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>82</v>
+        <v>729</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>82</v>
@@ -27041,19 +27078,19 @@
         <v>82</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>626</v>
+        <v>262</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>82</v>
@@ -27062,10 +27099,10 @@
         <v>82</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>535</v>
+        <v>263</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>536</v>
+        <v>264</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>82</v>
@@ -27079,11 +27116,9 @@
         <v>730</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C202" t="s" s="2">
-        <v>731</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
         <v>82</v>
       </c>
@@ -27095,7 +27130,7 @@
         <v>92</v>
       </c>
       <c r="H202" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I202" t="s" s="2">
         <v>82</v>
@@ -27104,19 +27139,19 @@
         <v>93</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>529</v>
+        <v>215</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>600</v>
+        <v>267</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>601</v>
+        <v>268</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>602</v>
+        <v>259</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>603</v>
+        <v>269</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>82</v>
@@ -27165,13 +27200,13 @@
         <v>82</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>599</v>
+        <v>270</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>104</v>
@@ -27186,10 +27221,10 @@
         <v>82</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>606</v>
+        <v>271</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>607</v>
+        <v>272</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>82</v>
@@ -27200,10 +27235,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27223,19 +27258,23 @@
         <v>82</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O203" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P203" t="s" s="2">
         <v>82</v>
       </c>
@@ -27283,7 +27322,7 @@
         <v>82</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27292,10 +27331,10 @@
         <v>92</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>82</v>
@@ -27304,10 +27343,10 @@
         <v>82</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>82</v>
@@ -27318,21 +27357,21 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>82</v>
@@ -27341,21 +27380,23 @@
         <v>82</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O204" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P204" t="s" s="2">
         <v>82</v>
       </c>
@@ -27391,31 +27432,31 @@
         <v>82</v>
       </c>
       <c r="AB204" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC204" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD204" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>82</v>
@@ -27424,10 +27465,10 @@
         <v>82</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>82</v>
@@ -27438,45 +27479,45 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J205" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>140</v>
+        <v>448</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>143</v>
+        <v>618</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>82</v>
@@ -27525,53 +27566,53 @@
         <v>82</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>82</v>
+        <v>620</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>106</v>
+        <v>457</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP205" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>736</v>
+        <v>82</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>92</v>
@@ -27583,22 +27624,22 @@
         <v>82</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K206" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>737</v>
+        <v>622</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>738</v>
+        <v>623</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>82</v>
@@ -27623,13 +27664,13 @@
         <v>82</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>370</v>
+        <v>467</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>82</v>
@@ -27647,34 +27688,34 @@
         <v>82</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>375</v>
+        <v>470</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>82</v>
@@ -27682,21 +27723,21 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>82</v>
@@ -27708,16 +27749,20 @@
         <v>82</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>216</v>
+        <v>473</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N207" s="2"/>
-      <c r="O207" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P207" t="s" s="2">
         <v>82</v>
       </c>
@@ -27741,13 +27786,13 @@
         <v>82</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
       <c r="Z207" t="s" s="2">
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="AA207" t="s" s="2">
         <v>82</v>
@@ -27765,49 +27810,49 @@
         <v>82</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>218</v>
+        <v>625</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>82</v>
+        <v>479</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>113</v>
+        <v>481</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP207" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
@@ -27826,18 +27871,20 @@
         <v>82</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>141</v>
+        <v>627</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>221</v>
+        <v>628</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O208" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="P208" t="s" s="2">
         <v>82</v>
       </c>
@@ -27873,19 +27920,19 @@
         <v>82</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>222</v>
+        <v>626</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -27894,10 +27941,10 @@
         <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>82</v>
@@ -27906,10 +27953,10 @@
         <v>82</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>82</v>
+        <v>535</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>106</v>
+        <v>536</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>82</v>
@@ -27920,24 +27967,26 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C209" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>738</v>
+      </c>
       <c r="D209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>645</v>
+        <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>82</v>
@@ -27946,19 +27995,19 @@
         <v>93</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>225</v>
+        <v>529</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>226</v>
+        <v>600</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>227</v>
+        <v>601</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>228</v>
+        <v>602</v>
       </c>
       <c r="O209" t="s" s="2">
-        <v>229</v>
+        <v>603</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
@@ -27995,17 +28044,19 @@
         <v>82</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AC209" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>230</v>
+        <v>599</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28026,10 +28077,10 @@
         <v>82</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>231</v>
+        <v>606</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>232</v>
+        <v>607</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>82</v>
@@ -28040,48 +28091,42 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C210" t="s" s="2">
-        <v>743</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
         <v>82</v>
       </c>
@@ -28129,19 +28174,19 @@
         <v>82</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>82</v>
@@ -28150,10 +28195,10 @@
         <v>82</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>82</v>
@@ -28164,21 +28209,21 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>82</v>
@@ -28190,15 +28235,17 @@
         <v>82</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N211" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>82</v>
@@ -28235,31 +28282,31 @@
         <v>82</v>
       </c>
       <c r="AB211" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC211" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD211" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>82</v>
@@ -28271,7 +28318,7 @@
         <v>82</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>82</v>
@@ -28282,14 +28329,14 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>139</v>
+        <v>540</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
@@ -28302,24 +28349,26 @@
         <v>82</v>
       </c>
       <c r="I212" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K212" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>141</v>
+        <v>541</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>221</v>
+        <v>542</v>
       </c>
       <c r="N212" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O212" s="2"/>
+      <c r="O212" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P212" t="s" s="2">
         <v>82</v>
       </c>
@@ -28355,19 +28404,19 @@
         <v>82</v>
       </c>
       <c r="AB212" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD212" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>222</v>
+        <v>543</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28402,14 +28451,14 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>654</v>
+        <v>611</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
-        <v>82</v>
+        <v>743</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
@@ -28419,7 +28468,7 @@
         <v>92</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>82</v>
@@ -28428,26 +28477,26 @@
         <v>93</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>239</v>
+        <v>744</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>240</v>
+        <v>745</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>241</v>
+        <v>638</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>82</v>
@@ -28465,13 +28514,13 @@
         <v>82</v>
       </c>
       <c r="X213" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y213" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z213" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>82</v>
@@ -28489,10 +28538,10 @@
         <v>82</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>244</v>
+        <v>611</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH213" t="s" s="2">
         <v>92</v>
@@ -28501,22 +28550,22 @@
         <v>104</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>82</v>
+        <v>615</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>245</v>
+        <v>374</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP213" t="s" s="2">
         <v>82</v>
@@ -28524,10 +28573,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28547,20 +28596,18 @@
         <v>82</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K214" t="s" s="2">
         <v>215</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N214" s="2"/>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
         <v>82</v>
@@ -28609,7 +28656,7 @@
         <v>82</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28618,10 +28665,10 @@
         <v>92</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>82</v>
@@ -28630,10 +28677,10 @@
         <v>82</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>82</v>
@@ -28644,52 +28691,50 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q215" s="2"/>
       <c r="R215" t="s" s="2">
-        <v>749</v>
+        <v>82</v>
       </c>
       <c r="S215" t="s" s="2">
         <v>82</v>
@@ -28719,31 +28764,31 @@
         <v>82</v>
       </c>
       <c r="AB215" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD215" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>82</v>
@@ -28752,10 +28797,10 @@
         <v>82</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>82</v>
@@ -28766,10 +28811,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28780,7 +28825,7 @@
         <v>80</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s" s="2">
         <v>82</v>
@@ -28792,19 +28837,19 @@
         <v>93</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>82</v>
@@ -28841,25 +28886,23 @@
         <v>82</v>
       </c>
       <c r="AB216" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC216" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="AC216" s="2"/>
       <c r="AD216" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>104</v>
@@ -28874,10 +28917,10 @@
         <v>82</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>82</v>
@@ -28888,12 +28931,14 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C217" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>750</v>
+      </c>
       <c r="D217" t="s" s="2">
         <v>82</v>
       </c>
@@ -28905,7 +28950,7 @@
         <v>92</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>82</v>
@@ -28914,19 +28959,19 @@
         <v>93</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>82</v>
@@ -28975,13 +29020,13 @@
         <v>82</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>104</v>
@@ -28996,10 +29041,10 @@
         <v>82</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>82</v>
@@ -29010,48 +29055,42 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C218" t="s" s="2">
-        <v>753</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I218" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>82</v>
       </c>
@@ -29099,19 +29138,19 @@
         <v>82</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>82</v>
@@ -29120,10 +29159,10 @@
         <v>82</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>82</v>
@@ -29134,21 +29173,21 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>82</v>
@@ -29157,23 +29196,21 @@
         <v>82</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>82</v>
       </c>
@@ -29209,31 +29246,31 @@
         <v>82</v>
       </c>
       <c r="AB219" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD219" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>82</v>
@@ -29242,10 +29279,10 @@
         <v>82</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="AO219" t="s" s="2">
         <v>82</v>
@@ -29256,10 +29293,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>616</v>
+        <v>653</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29267,7 +29304,7 @@
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>92</v>
@@ -29282,26 +29319,26 @@
         <v>93</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>617</v>
+        <v>239</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>618</v>
+        <v>241</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>452</v>
+        <v>242</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q220" s="2"/>
       <c r="R220" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S220" t="s" s="2">
         <v>82</v>
@@ -29343,7 +29380,7 @@
         <v>82</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>616</v>
+        <v>244</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29361,27 +29398,27 @@
         <v>82</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>620</v>
+        <v>82</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="AO220" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP220" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29401,23 +29438,21 @@
         <v>82</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>622</v>
+        <v>249</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>623</v>
+        <v>250</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
         <v>82</v>
       </c>
@@ -29441,13 +29476,13 @@
         <v>82</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="Z221" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AA221" t="s" s="2">
         <v>82</v>
@@ -29465,7 +29500,7 @@
         <v>82</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>621</v>
+        <v>252</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29474,7 +29509,7 @@
         <v>92</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AJ221" t="s" s="2">
         <v>105</v>
@@ -29486,10 +29521,10 @@
         <v>82</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>470</v>
+        <v>254</v>
       </c>
       <c r="AO221" t="s" s="2">
         <v>82</v>
@@ -29500,21 +29535,21 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>82</v>
@@ -29523,29 +29558,29 @@
         <v>82</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>473</v>
+        <v>257</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>474</v>
+        <v>258</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>475</v>
+        <v>259</v>
       </c>
       <c r="O222" t="s" s="2">
-        <v>476</v>
+        <v>260</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q222" s="2"/>
       <c r="R222" t="s" s="2">
-        <v>82</v>
+        <v>756</v>
       </c>
       <c r="S222" t="s" s="2">
         <v>82</v>
@@ -29563,13 +29598,13 @@
         <v>82</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>82</v>
@@ -29587,13 +29622,13 @@
         <v>82</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>625</v>
+        <v>262</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>104</v>
@@ -29605,27 +29640,27 @@
         <v>82</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>480</v>
+        <v>263</v>
       </c>
       <c r="AN222" t="s" s="2">
-        <v>481</v>
+        <v>264</v>
       </c>
       <c r="AO222" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP222" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29636,7 +29671,7 @@
         <v>80</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>82</v>
@@ -29645,22 +29680,22 @@
         <v>82</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>627</v>
+        <v>267</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>628</v>
+        <v>268</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>532</v>
+        <v>259</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>533</v>
+        <v>269</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>82</v>
@@ -29709,41 +29744,1743 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN223" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AO223" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP223" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM224" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN224" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO224" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP224" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="225" hidden="true">
+      <c r="A225" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="D225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q225" s="2"/>
+      <c r="R225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN225" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO225" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP225" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN226" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO226" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP226" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q227" s="2"/>
+      <c r="R227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO227" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP227" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q228" s="2"/>
+      <c r="R228" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AO228" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP228" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q229" s="2"/>
+      <c r="R229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN229" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO229" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP229" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="P230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q230" s="2"/>
+      <c r="R230" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN230" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO230" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP230" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="231" hidden="true">
+      <c r="A231" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q231" s="2"/>
+      <c r="R231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM231" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN231" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AO231" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP231" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="232" hidden="true">
+      <c r="A232" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM232" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN232" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AO232" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP232" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" hidden="true">
+      <c r="A233" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q233" s="2"/>
+      <c r="R233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM233" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN233" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AO233" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP233" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="234" hidden="true">
+      <c r="A234" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G234" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J234" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K234" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L234" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="O234" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q234" s="2"/>
+      <c r="R234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF234" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AG234" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH234" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI234" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ234" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL234" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM234" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN234" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AO234" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP234" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="235" hidden="true">
+      <c r="A235" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G235" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K235" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L235" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q235" s="2"/>
+      <c r="R235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Y235" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z235" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AA235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF235" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AG235" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH235" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI235" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AJ235" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM235" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN235" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO235" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP235" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="236" hidden="true">
+      <c r="A236" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G236" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="P236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q236" s="2"/>
+      <c r="R236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Y236" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z236" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL236" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM236" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN236" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO236" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP236" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="237" hidden="true">
+      <c r="A237" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="B237" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AG223" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH223" t="s" s="2">
+      <c r="C237" s="2"/>
+      <c r="D237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G237" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI223" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ223" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK223" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL223" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM223" t="s" s="2">
+      <c r="H237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q237" s="2"/>
+      <c r="R237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM237" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AN223" t="s" s="2">
+      <c r="AN237" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AO223" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP223" t="s" s="2">
+      <c r="AO237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP237" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP223">
+  <autoFilter ref="A1:AP237">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29753,7 +31490,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI222">
+  <conditionalFormatting sqref="A2:AI236">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses CDE enthält den Raucherstatus einer Person</t>
+    <t>Dieses CDE enthält den 'Raucherstatus'.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4976,7 +4976,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5336,7 +5336,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5578,7 +5578,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6428,7 +6428,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6788,7 +6788,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -7030,7 +7030,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7880,7 +7880,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -8240,7 +8240,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8482,7 +8482,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -9332,7 +9332,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9692,7 +9692,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9934,7 +9934,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10784,7 +10784,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -11144,7 +11144,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11386,7 +11386,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
@@ -12236,7 +12236,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -12596,7 +12596,7 @@
         <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>82</v>
@@ -12838,7 +12838,7 @@
         <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2322,10 +2322,10 @@
 Nichtraucher</t>
   </si>
   <si>
-    <t>Male sex</t>
-  </si>
-  <si>
-    <t>Biological nonSmoker sex</t>
+    <t>Non-Smoker</t>
+  </si>
+  <si>
+    <t>Non-smoker</t>
   </si>
   <si>
     <t>Observation.component:nonSmoker.code.id</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G148" t="s" s="2">
         <v>92</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>92</v>
@@ -25912,7 +25912,7 @@
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>92</v>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>92</v>
@@ -29426,7 +29426,7 @@
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G221" t="s" s="2">
         <v>92</v>
@@ -30396,7 +30396,7 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>https://fhir.loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>
@@ -4556,7 +4556,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>
@@ -18038,13 +18038,13 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-tobacco-smoking-status</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-tobacco-smoking-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-smoking-status</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-smoking-status</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2763,7 +2763,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-tobacco-smoking-status</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-tobacco-smoking-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-smoking-status</t>
+    <t>http://fhir.org/de/ValueSet/vs-smoking-status</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2763,7 +2763,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-tobacco-smoking-status</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-tobacco-smoking-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1941,7 +1941,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-smoking-status</t>
+    <t>http://hl7.org/de/ValueSet/vs-smoking-status</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2122,7 +2122,7 @@
 Occasional Smoker</t>
   </si>
   <si>
-    <t xml:space="preserve">Occasional Tobacco Smoker </t>
+    <t>Occasional Tobacco Smoker</t>
   </si>
   <si>
     <t>Consumption of cigarettes, cigars, pipes or chewing tobacco; in case of less than 1x/month).</t>
@@ -4613,7 +4613,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -6065,7 +6065,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7517,7 +7517,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8969,7 +8969,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -10421,7 +10421,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>
@@ -11873,7 +11873,7 @@
         <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12712,7 +12712,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1199,7 +1199,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
